--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AD672-164A-4889-9774-1048533A137E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E14DE-C4C9-49A6-A066-CCDFE598C26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,25 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
   <si>
     <t>Lot</t>
   </si>
@@ -213,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,23 +229,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,239 +794,313 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.6640625" style="5"/>
+    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="7.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E14DE-C4C9-49A6-A066-CCDFE598C26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AEED4-52AA-47B1-AB97-62CBF2BC7D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>Lot</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>1/2</t>
   </si>
 </sst>
 </file>
@@ -261,10 +264,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +797,10 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -989,7 +995,9 @@
       <c r="F6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1073,7 +1081,9 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AEED4-52AA-47B1-AB97-62CBF2BC7D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7C2AEED4-52AA-47B1-AB97-62CBF2BC7D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EAF5C85-4C28-4198-9E5B-6E2C59EB1B4A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
   <si>
     <t>Lot</t>
   </si>
@@ -556,15 +554,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -606,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -620,7 +618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -634,7 +632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -648,7 +646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -662,7 +660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -676,7 +674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -690,7 +688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -704,7 +702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -718,7 +716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -729,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -743,7 +741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -754,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -765,7 +763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -776,7 +774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -800,16 +798,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="13" width="7.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -850,7 +848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -891,7 +889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -932,7 +930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -951,7 +949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -976,7 +974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1094,7 +1092,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -1103,7 +1101,9 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7C2AEED4-52AA-47B1-AB97-62CBF2BC7D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EAF5C85-4C28-4198-9E5B-6E2C59EB1B4A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7C2AEED4-52AA-47B1-AB97-62CBF2BC7D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB8256C3-E141-4DA3-A345-CA1461FCC031}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="3360" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>Lot</t>
   </si>
@@ -798,7 +798,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,9 +1069,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\OneDrive - GROUP DIGITAL WORKPLACE\Documents\Privé\Ferae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bertolen\Documents\JdR\Univers\Chroniques des Ténèbres\Ferae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7C2AEED4-52AA-47B1-AB97-62CBF2BC7D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB8256C3-E141-4DA3-A345-CA1461FCC031}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE719B3-9044-4C50-AD72-E8BDCA751803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3360" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Lot</t>
   </si>
@@ -94,9 +94,6 @@
     <t>A laisser intacte</t>
   </si>
   <si>
-    <t>Traditions</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>A Faire</t>
   </si>
   <si>
-    <t>Chaque Espèce doit avoir une Tradition, une raison d'être</t>
-  </si>
-  <si>
     <t>Ajaba</t>
   </si>
   <si>
@@ -191,6 +185,15 @@
   </si>
   <si>
     <t>1/2</t>
+  </si>
+  <si>
+    <t>Camazotz</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Chaque Espèce doit avoir une Mission, une raison d'être</t>
   </si>
 </sst>
 </file>
@@ -551,18 +554,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,10 +576,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -587,10 +590,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -601,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -618,7 +621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -629,10 +632,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -643,10 +646,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -657,38 +660,38 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -699,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -713,57 +716,57 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -771,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -782,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -792,145 +795,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40A1FA4-42FE-459B-89FF-FE8A9EF51921}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="7.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="7.265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -945,116 +959,122 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="7"/>
+      <c r="N4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1069,16 +1089,17 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1089,26 +1110,28 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="6" t="s">
-        <v>51</v>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
